--- a/VIC_COVID19_DAILY_DATA.xlsx
+++ b/VIC_COVID19_DAILY_DATA.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE81D0EE-8736-4BD6-B315-F968BFCD47A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9065896-8420-4C06-9A3E-B464C3FD324A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{E17AFEF4-1749-4785-AE99-0E02D8C0747B}"/>
   </bookViews>
@@ -90,10 +90,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -408,10 +407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA51717A-24DA-46B2-B9D4-0FDC25CE10F4}">
-  <dimension ref="A1:H94"/>
+  <dimension ref="A1:H100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="H94" sqref="H94"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="H100" sqref="H100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2777,7 +2776,6 @@
         <v>3856</v>
       </c>
       <c r="C93">
-        <f>B93-D93</f>
         <v>1053</v>
       </c>
       <c r="D93">
@@ -2792,7 +2790,7 @@
       <c r="G93">
         <v>5</v>
       </c>
-      <c r="H93" s="2">
+      <c r="H93">
         <v>7762</v>
       </c>
     </row>
@@ -2804,7 +2802,6 @@
         <v>4211</v>
       </c>
       <c r="C94">
-        <f>B94-D94</f>
         <v>990</v>
       </c>
       <c r="D94">
@@ -2823,8 +2820,165 @@
         <v>7930</v>
       </c>
     </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A95" s="1">
+        <v>44898</v>
+      </c>
+      <c r="B95">
+        <v>3173</v>
+      </c>
+      <c r="C95">
+        <v>874</v>
+      </c>
+      <c r="D95">
+        <v>2299</v>
+      </c>
+      <c r="E95">
+        <v>620</v>
+      </c>
+      <c r="F95">
+        <v>22</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95">
+        <v>6085</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A96" s="1">
+        <v>44899</v>
+      </c>
+      <c r="B96">
+        <v>3111</v>
+      </c>
+      <c r="C96">
+        <v>532</v>
+      </c>
+      <c r="D96">
+        <v>2579</v>
+      </c>
+      <c r="E96">
+        <v>703</v>
+      </c>
+      <c r="F96">
+        <v>29</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>4157</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A97" s="1">
+        <v>44900</v>
+      </c>
+      <c r="B97">
+        <v>4843</v>
+      </c>
+      <c r="C97">
+        <v>860</v>
+      </c>
+      <c r="D97">
+        <v>3983</v>
+      </c>
+      <c r="E97">
+        <v>720</v>
+      </c>
+      <c r="F97">
+        <v>35</v>
+      </c>
+      <c r="G97">
+        <v>20</v>
+      </c>
+      <c r="H97">
+        <v>6830</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A98" s="1">
+        <v>44901</v>
+      </c>
+      <c r="B98">
+        <v>4377</v>
+      </c>
+      <c r="C98">
+        <v>1165</v>
+      </c>
+      <c r="D98">
+        <v>3212</v>
+      </c>
+      <c r="E98">
+        <v>731</v>
+      </c>
+      <c r="F98">
+        <v>32</v>
+      </c>
+      <c r="G98">
+        <v>20</v>
+      </c>
+      <c r="H98">
+        <v>8505</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A99" s="1">
+        <v>44902</v>
+      </c>
+      <c r="B99">
+        <v>4284</v>
+      </c>
+      <c r="C99">
+        <v>1059</v>
+      </c>
+      <c r="D99">
+        <v>3225</v>
+      </c>
+      <c r="E99">
+        <v>712</v>
+      </c>
+      <c r="F99">
+        <v>29</v>
+      </c>
+      <c r="G99">
+        <v>20</v>
+      </c>
+      <c r="H99">
+        <v>8410</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A100" s="1">
+        <v>44903</v>
+      </c>
+      <c r="B100">
+        <v>3658</v>
+      </c>
+      <c r="C100">
+        <f>B100-D100</f>
+        <v>1060</v>
+      </c>
+      <c r="D100">
+        <v>2598</v>
+      </c>
+      <c r="E100">
+        <v>713</v>
+      </c>
+      <c r="F100">
+        <v>29</v>
+      </c>
+      <c r="G100">
+        <v>13</v>
+      </c>
+      <c r="H100">
+        <v>8135</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/VIC_COVID19_DAILY_DATA.xlsx
+++ b/VIC_COVID19_DAILY_DATA.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9065896-8420-4C06-9A3E-B464C3FD324A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EE6DA52-7480-40BA-9BA3-7A238BF328EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{E17AFEF4-1749-4785-AE99-0E02D8C0747B}"/>
+    <workbookView xWindow="3263" yWindow="3255" windowWidth="11827" windowHeight="9818" xr2:uid="{E17AFEF4-1749-4785-AE99-0E02D8C0747B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -90,9 +90,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -407,10 +408,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA51717A-24DA-46B2-B9D4-0FDC25CE10F4}">
-  <dimension ref="A1:H100"/>
+  <dimension ref="A1:H108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="H100" sqref="H100"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A108" sqref="A108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2954,10 +2956,10 @@
       <c r="A100" s="1">
         <v>44903</v>
       </c>
-      <c r="B100">
+      <c r="B100" s="2">
         <v>3658</v>
       </c>
-      <c r="C100">
+      <c r="C100" s="2">
         <f>B100-D100</f>
         <v>1060</v>
       </c>
@@ -2973,8 +2975,224 @@
       <c r="G100">
         <v>13</v>
       </c>
-      <c r="H100">
+      <c r="H100" s="2">
         <v>8135</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A101" s="1">
+        <v>44904</v>
+      </c>
+      <c r="B101" s="2">
+        <v>3053</v>
+      </c>
+      <c r="C101" s="2">
+        <f t="shared" ref="C101:C108" si="0">B101-D101</f>
+        <v>889</v>
+      </c>
+      <c r="D101">
+        <v>2164</v>
+      </c>
+      <c r="E101">
+        <v>705</v>
+      </c>
+      <c r="F101">
+        <v>30</v>
+      </c>
+      <c r="G101">
+        <v>21</v>
+      </c>
+      <c r="H101" s="2">
+        <v>6899</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A102" s="1">
+        <v>44905</v>
+      </c>
+      <c r="B102" s="2">
+        <v>2686</v>
+      </c>
+      <c r="C102" s="2">
+        <f t="shared" si="0"/>
+        <v>802</v>
+      </c>
+      <c r="D102">
+        <v>1884</v>
+      </c>
+      <c r="E102">
+        <v>719</v>
+      </c>
+      <c r="F102">
+        <v>31</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102" s="2">
+        <v>6267</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A103" s="1">
+        <v>44906</v>
+      </c>
+      <c r="B103" s="2">
+        <v>2873</v>
+      </c>
+      <c r="C103" s="2">
+        <f t="shared" si="0"/>
+        <v>559</v>
+      </c>
+      <c r="D103">
+        <v>2314</v>
+      </c>
+      <c r="E103">
+        <v>687</v>
+      </c>
+      <c r="F103">
+        <v>23</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103" s="2">
+        <v>4534</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A104" s="1">
+        <v>44907</v>
+      </c>
+      <c r="B104" s="2">
+        <v>4376</v>
+      </c>
+      <c r="C104" s="2">
+        <f t="shared" si="0"/>
+        <v>834</v>
+      </c>
+      <c r="D104">
+        <v>3542</v>
+      </c>
+      <c r="E104">
+        <v>680</v>
+      </c>
+      <c r="F104">
+        <v>26</v>
+      </c>
+      <c r="G104">
+        <v>20</v>
+      </c>
+      <c r="H104" s="2">
+        <v>6642</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A105" s="1">
+        <v>44908</v>
+      </c>
+      <c r="B105" s="2">
+        <v>3882</v>
+      </c>
+      <c r="C105" s="2">
+        <f t="shared" si="0"/>
+        <v>1075</v>
+      </c>
+      <c r="D105">
+        <v>2807</v>
+      </c>
+      <c r="E105">
+        <v>660</v>
+      </c>
+      <c r="F105">
+        <v>23</v>
+      </c>
+      <c r="G105">
+        <v>10</v>
+      </c>
+      <c r="H105" s="2">
+        <v>8654</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A106" s="1">
+        <v>44909</v>
+      </c>
+      <c r="B106" s="2">
+        <v>4209</v>
+      </c>
+      <c r="C106" s="2">
+        <f t="shared" si="0"/>
+        <v>939</v>
+      </c>
+      <c r="D106">
+        <v>3270</v>
+      </c>
+      <c r="E106">
+        <v>639</v>
+      </c>
+      <c r="F106">
+        <v>25</v>
+      </c>
+      <c r="G106">
+        <v>20</v>
+      </c>
+      <c r="H106" s="2">
+        <v>7445</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A107" s="1">
+        <v>44910</v>
+      </c>
+      <c r="B107" s="2">
+        <v>3561</v>
+      </c>
+      <c r="C107" s="2">
+        <f t="shared" si="0"/>
+        <v>954</v>
+      </c>
+      <c r="D107">
+        <v>2607</v>
+      </c>
+      <c r="E107">
+        <v>638</v>
+      </c>
+      <c r="F107">
+        <v>28</v>
+      </c>
+      <c r="G107">
+        <v>17</v>
+      </c>
+      <c r="H107" s="2">
+        <v>7294</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A108" s="1">
+        <v>44911</v>
+      </c>
+      <c r="B108" s="2">
+        <v>3371</v>
+      </c>
+      <c r="C108" s="2">
+        <f t="shared" si="0"/>
+        <v>940</v>
+      </c>
+      <c r="D108">
+        <v>2431</v>
+      </c>
+      <c r="E108">
+        <v>644</v>
+      </c>
+      <c r="F108">
+        <v>24</v>
+      </c>
+      <c r="G108">
+        <v>19</v>
+      </c>
+      <c r="H108" s="2">
+        <v>7638</v>
       </c>
     </row>
   </sheetData>

--- a/VIC_COVID19_DAILY_DATA.xlsx
+++ b/VIC_COVID19_DAILY_DATA.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EE6DA52-7480-40BA-9BA3-7A238BF328EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51951CFB-1A98-4605-B851-8FBF67EA9E0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3263" yWindow="3255" windowWidth="11827" windowHeight="9818" xr2:uid="{E17AFEF4-1749-4785-AE99-0E02D8C0747B}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{E17AFEF4-1749-4785-AE99-0E02D8C0747B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -408,11 +408,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA51717A-24DA-46B2-B9D4-0FDC25CE10F4}">
-  <dimension ref="A1:H108"/>
+  <dimension ref="A1:H114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A108" sqref="A108"/>
+      <pane ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A114" sqref="A114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2987,7 +2987,7 @@
         <v>3053</v>
       </c>
       <c r="C101" s="2">
-        <f t="shared" ref="C101:C108" si="0">B101-D101</f>
+        <f t="shared" ref="C101:C114" si="0">B101-D101</f>
         <v>889</v>
       </c>
       <c r="D101">
@@ -3193,6 +3193,168 @@
       </c>
       <c r="H108" s="2">
         <v>7638</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A109" s="1">
+        <v>44912</v>
+      </c>
+      <c r="B109" s="2">
+        <v>2807</v>
+      </c>
+      <c r="C109" s="2">
+        <f t="shared" si="0"/>
+        <v>752</v>
+      </c>
+      <c r="D109">
+        <v>2055</v>
+      </c>
+      <c r="E109">
+        <v>623</v>
+      </c>
+      <c r="F109">
+        <v>26</v>
+      </c>
+      <c r="G109">
+        <v>0</v>
+      </c>
+      <c r="H109" s="2">
+        <v>5812</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A110" s="1">
+        <v>44913</v>
+      </c>
+      <c r="B110" s="2">
+        <v>2989</v>
+      </c>
+      <c r="C110" s="2">
+        <f t="shared" si="0"/>
+        <v>566</v>
+      </c>
+      <c r="D110">
+        <v>2423</v>
+      </c>
+      <c r="E110">
+        <v>623</v>
+      </c>
+      <c r="F110">
+        <v>26</v>
+      </c>
+      <c r="G110">
+        <v>0</v>
+      </c>
+      <c r="H110" s="2">
+        <v>4509</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A111" s="1">
+        <v>44914</v>
+      </c>
+      <c r="B111" s="2">
+        <v>3830</v>
+      </c>
+      <c r="C111" s="2">
+        <f t="shared" si="0"/>
+        <v>721</v>
+      </c>
+      <c r="D111">
+        <v>3109</v>
+      </c>
+      <c r="E111">
+        <v>668</v>
+      </c>
+      <c r="F111">
+        <v>33</v>
+      </c>
+      <c r="G111">
+        <v>20</v>
+      </c>
+      <c r="H111" s="2">
+        <v>5824</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A112" s="1">
+        <v>44915</v>
+      </c>
+      <c r="B112" s="2">
+        <v>4176</v>
+      </c>
+      <c r="C112" s="2">
+        <f t="shared" si="0"/>
+        <v>1036</v>
+      </c>
+      <c r="D112">
+        <v>3140</v>
+      </c>
+      <c r="E112">
+        <v>691</v>
+      </c>
+      <c r="F112">
+        <v>31</v>
+      </c>
+      <c r="G112">
+        <v>22</v>
+      </c>
+      <c r="H112" s="2">
+        <v>8097</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A113" s="1">
+        <v>44916</v>
+      </c>
+      <c r="B113" s="2">
+        <v>3578</v>
+      </c>
+      <c r="C113" s="2">
+        <f t="shared" si="0"/>
+        <v>998</v>
+      </c>
+      <c r="D113">
+        <v>2580</v>
+      </c>
+      <c r="E113">
+        <v>704</v>
+      </c>
+      <c r="F113">
+        <v>30</v>
+      </c>
+      <c r="G113">
+        <v>22</v>
+      </c>
+      <c r="H113" s="2">
+        <v>7339</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A114" s="1">
+        <v>44917</v>
+      </c>
+      <c r="B114" s="2">
+        <v>3243</v>
+      </c>
+      <c r="C114" s="2">
+        <f t="shared" si="0"/>
+        <v>951</v>
+      </c>
+      <c r="D114">
+        <v>2292</v>
+      </c>
+      <c r="E114">
+        <v>707</v>
+      </c>
+      <c r="F114">
+        <v>35</v>
+      </c>
+      <c r="G114">
+        <v>21</v>
+      </c>
+      <c r="H114" s="2">
+        <v>7290</v>
       </c>
     </row>
   </sheetData>

--- a/VIC_COVID19_DAILY_DATA.xlsx
+++ b/VIC_COVID19_DAILY_DATA.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51951CFB-1A98-4605-B851-8FBF67EA9E0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CDBBD4A-6786-4E76-B761-BC2C90DA12A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{E17AFEF4-1749-4785-AE99-0E02D8C0747B}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>New Cases</t>
   </si>
@@ -56,18 +56,45 @@
   <si>
     <t>PCR Tests</t>
   </si>
+  <si>
+    <t>23/12/2022</t>
+  </si>
+  <si>
+    <t>24/12/2022</t>
+  </si>
+  <si>
+    <t>25/12/2022</t>
+  </si>
+  <si>
+    <t>26/12/2022</t>
+  </si>
+  <si>
+    <t>27/12/2022</t>
+  </si>
+  <si>
+    <t>28/12/2022</t>
+  </si>
+  <si>
+    <t>29/12/2022</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -90,10 +117,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -408,11 +436,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA51717A-24DA-46B2-B9D4-0FDC25CE10F4}">
-  <dimension ref="A1:H114"/>
+  <dimension ref="A1:H121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A114" sqref="A114"/>
+      <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G120" sqref="G114:G120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3357,6 +3385,189 @@
         <v>7290</v>
       </c>
     </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A115" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B115" s="3">
+        <v>2826</v>
+      </c>
+      <c r="C115" s="3">
+        <v>883</v>
+      </c>
+      <c r="D115" s="3">
+        <v>1943</v>
+      </c>
+      <c r="E115" s="3">
+        <v>695</v>
+      </c>
+      <c r="F115" s="3">
+        <v>37</v>
+      </c>
+      <c r="G115" s="3">
+        <v>25</v>
+      </c>
+      <c r="H115" s="3">
+        <v>6779</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A116" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B116" s="3">
+        <v>2242</v>
+      </c>
+      <c r="C116" s="3">
+        <v>765</v>
+      </c>
+      <c r="D116" s="3">
+        <v>1477</v>
+      </c>
+      <c r="E116" s="3">
+        <v>679</v>
+      </c>
+      <c r="F116" s="3">
+        <v>34</v>
+      </c>
+      <c r="G116" s="3">
+        <v>0</v>
+      </c>
+      <c r="H116" s="3">
+        <v>5557</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A117" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B117" s="3">
+        <v>1605</v>
+      </c>
+      <c r="C117" s="3">
+        <v>431</v>
+      </c>
+      <c r="D117" s="3">
+        <v>1174</v>
+      </c>
+      <c r="E117" s="3">
+        <v>690</v>
+      </c>
+      <c r="F117" s="3">
+        <v>31</v>
+      </c>
+      <c r="G117" s="3">
+        <v>0</v>
+      </c>
+      <c r="H117" s="3">
+        <v>3422</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A118" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B118" s="3">
+        <v>1890</v>
+      </c>
+      <c r="C118" s="3">
+        <v>322</v>
+      </c>
+      <c r="D118" s="3">
+        <v>1568</v>
+      </c>
+      <c r="E118" s="3">
+        <v>724</v>
+      </c>
+      <c r="F118" s="3">
+        <v>31</v>
+      </c>
+      <c r="G118" s="3">
+        <v>0</v>
+      </c>
+      <c r="H118" s="3">
+        <v>3785</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A119" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B119" s="3">
+        <v>2117</v>
+      </c>
+      <c r="C119" s="3">
+        <v>459</v>
+      </c>
+      <c r="D119" s="3">
+        <v>1658</v>
+      </c>
+      <c r="E119" s="3">
+        <v>736</v>
+      </c>
+      <c r="F119" s="3">
+        <v>33</v>
+      </c>
+      <c r="G119" s="3">
+        <v>0</v>
+      </c>
+      <c r="H119" s="3">
+        <v>4523</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A120" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B120" s="3">
+        <v>2737</v>
+      </c>
+      <c r="C120" s="3">
+        <v>566</v>
+      </c>
+      <c r="D120" s="3">
+        <v>2171</v>
+      </c>
+      <c r="E120" s="3">
+        <v>750</v>
+      </c>
+      <c r="F120" s="3">
+        <v>34</v>
+      </c>
+      <c r="G120" s="3">
+        <v>24</v>
+      </c>
+      <c r="H120" s="3">
+        <v>5514</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A121" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B121" s="3">
+        <v>2563</v>
+      </c>
+      <c r="C121" s="2">
+        <f t="shared" ref="C121" si="1">B121-D121</f>
+        <v>648</v>
+      </c>
+      <c r="D121" s="3">
+        <v>1915</v>
+      </c>
+      <c r="E121" s="3">
+        <v>745</v>
+      </c>
+      <c r="F121" s="3">
+        <v>39</v>
+      </c>
+      <c r="G121" s="3">
+        <v>25</v>
+      </c>
+      <c r="H121" s="3">
+        <v>5724</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/VIC_COVID19_DAILY_DATA.xlsx
+++ b/VIC_COVID19_DAILY_DATA.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CDBBD4A-6786-4E76-B761-BC2C90DA12A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37AA9675-16F8-4C33-BD01-68EEFE0A7DB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{E17AFEF4-1749-4785-AE99-0E02D8C0747B}"/>
+    <workbookView xWindow="-28440" yWindow="2880" windowWidth="14370" windowHeight="9930" xr2:uid="{E17AFEF4-1749-4785-AE99-0E02D8C0747B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>New Cases</t>
   </si>
@@ -77,6 +77,27 @@
   <si>
     <t>29/12/2022</t>
   </si>
+  <si>
+    <t>30/12/2022</t>
+  </si>
+  <si>
+    <t>31/12/2022</t>
+  </si>
+  <si>
+    <t>1/01/2023</t>
+  </si>
+  <si>
+    <t>2/01/2023</t>
+  </si>
+  <si>
+    <t>3/01/2023</t>
+  </si>
+  <si>
+    <t>4/01/2023</t>
+  </si>
+  <si>
+    <t>5/01/2023</t>
+  </si>
 </sst>
 </file>
 
@@ -117,10 +138,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -436,11 +458,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA51717A-24DA-46B2-B9D4-0FDC25CE10F4}">
-  <dimension ref="A1:H121"/>
+  <dimension ref="A1:H128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G120" sqref="G114:G120"/>
+      <selection pane="bottomLeft" activeCell="A128" sqref="A128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3549,7 +3571,7 @@
         <v>2563</v>
       </c>
       <c r="C121" s="2">
-        <f t="shared" ref="C121" si="1">B121-D121</f>
+        <f t="shared" ref="C121:C128" si="1">B121-D121</f>
         <v>648</v>
       </c>
       <c r="D121" s="3">
@@ -3566,6 +3588,188 @@
       </c>
       <c r="H121" s="3">
         <v>5724</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A122" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B122" s="4">
+        <v>2002</v>
+      </c>
+      <c r="C122" s="2">
+        <f t="shared" si="1"/>
+        <v>576</v>
+      </c>
+      <c r="D122" s="4">
+        <v>1426</v>
+      </c>
+      <c r="E122" s="4">
+        <v>639</v>
+      </c>
+      <c r="F122" s="4">
+        <v>31</v>
+      </c>
+      <c r="G122" s="4">
+        <v>23</v>
+      </c>
+      <c r="H122" s="4">
+        <v>5663</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A123" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B123" s="4">
+        <v>1424</v>
+      </c>
+      <c r="C123" s="2">
+        <f t="shared" si="1"/>
+        <v>431</v>
+      </c>
+      <c r="D123" s="4">
+        <v>993</v>
+      </c>
+      <c r="E123" s="4">
+        <v>642</v>
+      </c>
+      <c r="F123" s="4">
+        <v>28</v>
+      </c>
+      <c r="G123" s="4">
+        <v>0</v>
+      </c>
+      <c r="H123" s="4">
+        <v>4434</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A124" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B124" s="4">
+        <v>1226</v>
+      </c>
+      <c r="C124" s="2">
+        <f t="shared" si="1"/>
+        <v>299</v>
+      </c>
+      <c r="D124" s="4">
+        <v>927</v>
+      </c>
+      <c r="E124" s="4">
+        <v>669</v>
+      </c>
+      <c r="F124" s="4">
+        <v>29</v>
+      </c>
+      <c r="G124" s="4">
+        <v>0</v>
+      </c>
+      <c r="H124" s="4">
+        <v>3197</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A125" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B125" s="4"/>
+      <c r="C125" s="2"/>
+      <c r="D125" s="4"/>
+      <c r="E125" s="4">
+        <v>745</v>
+      </c>
+      <c r="F125" s="4">
+        <v>44</v>
+      </c>
+      <c r="G125" s="4">
+        <v>0</v>
+      </c>
+      <c r="H125" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A126" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B126" s="4">
+        <v>2172</v>
+      </c>
+      <c r="C126" s="2">
+        <f t="shared" si="1"/>
+        <v>302</v>
+      </c>
+      <c r="D126" s="4">
+        <v>1870</v>
+      </c>
+      <c r="E126" s="4">
+        <v>634</v>
+      </c>
+      <c r="F126" s="4">
+        <v>32</v>
+      </c>
+      <c r="G126" s="4">
+        <v>30</v>
+      </c>
+      <c r="H126" s="4">
+        <v>10950</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A127" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B127" s="4">
+        <v>1629</v>
+      </c>
+      <c r="C127" s="2">
+        <f t="shared" si="1"/>
+        <v>377</v>
+      </c>
+      <c r="D127" s="4">
+        <v>1252</v>
+      </c>
+      <c r="E127" s="4">
+        <v>638</v>
+      </c>
+      <c r="F127" s="4">
+        <v>32</v>
+      </c>
+      <c r="G127" s="4">
+        <v>30</v>
+      </c>
+      <c r="H127" s="4">
+        <v>4498</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A128" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B128" s="4">
+        <v>1650</v>
+      </c>
+      <c r="C128" s="2">
+        <f t="shared" si="1"/>
+        <v>358</v>
+      </c>
+      <c r="D128" s="4">
+        <v>1292</v>
+      </c>
+      <c r="E128" s="4">
+        <v>545</v>
+      </c>
+      <c r="F128" s="4">
+        <v>27</v>
+      </c>
+      <c r="G128" s="4">
+        <v>30</v>
+      </c>
+      <c r="H128" s="4">
+        <v>5470</v>
       </c>
     </row>
   </sheetData>

--- a/VIC_COVID19_DAILY_DATA.xlsx
+++ b/VIC_COVID19_DAILY_DATA.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37AA9675-16F8-4C33-BD01-68EEFE0A7DB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8398F2D-EA7D-43B6-B3FE-E9BF4B3C61A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28440" yWindow="2880" windowWidth="14370" windowHeight="9930" xr2:uid="{E17AFEF4-1749-4785-AE99-0E02D8C0747B}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="21720" windowHeight="13800" xr2:uid="{E17AFEF4-1749-4785-AE99-0E02D8C0747B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>New Cases</t>
   </si>
@@ -98,6 +98,27 @@
   <si>
     <t>5/01/2023</t>
   </si>
+  <si>
+    <t>6/01/2023</t>
+  </si>
+  <si>
+    <t>7/01/2023</t>
+  </si>
+  <si>
+    <t>8/01/2023</t>
+  </si>
+  <si>
+    <t>9/01/2023</t>
+  </si>
+  <si>
+    <t>10/01/2023</t>
+  </si>
+  <si>
+    <t>11/01/2023</t>
+  </si>
+  <si>
+    <t>12/01/2023</t>
+  </si>
 </sst>
 </file>
 
@@ -138,12 +159,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -458,11 +480,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA51717A-24DA-46B2-B9D4-0FDC25CE10F4}">
-  <dimension ref="A1:H128"/>
+  <dimension ref="A1:H135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A128" sqref="A128"/>
+      <pane ySplit="1" topLeftCell="A114" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H131" sqref="H131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3571,7 +3593,7 @@
         <v>2563</v>
       </c>
       <c r="C121" s="2">
-        <f t="shared" ref="C121:C128" si="1">B121-D121</f>
+        <f t="shared" ref="C121:C133" si="1">B121-D121</f>
         <v>648</v>
       </c>
       <c r="D121" s="3">
@@ -3591,185 +3613,360 @@
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A122" s="4" t="s">
+      <c r="A122" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B122" s="4">
+      <c r="B122" s="3">
         <v>2002</v>
       </c>
       <c r="C122" s="2">
         <f t="shared" si="1"/>
         <v>576</v>
       </c>
-      <c r="D122" s="4">
+      <c r="D122" s="3">
         <v>1426</v>
       </c>
-      <c r="E122" s="4">
+      <c r="E122" s="3">
         <v>639</v>
       </c>
-      <c r="F122" s="4">
+      <c r="F122" s="3">
         <v>31</v>
       </c>
-      <c r="G122" s="4">
+      <c r="G122" s="3">
         <v>23</v>
       </c>
-      <c r="H122" s="4">
+      <c r="H122" s="3">
         <v>5663</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A123" s="4" t="s">
+      <c r="A123" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B123" s="4">
+      <c r="B123" s="3">
         <v>1424</v>
       </c>
       <c r="C123" s="2">
         <f t="shared" si="1"/>
         <v>431</v>
       </c>
-      <c r="D123" s="4">
+      <c r="D123" s="3">
         <v>993</v>
       </c>
-      <c r="E123" s="4">
+      <c r="E123" s="3">
         <v>642</v>
       </c>
-      <c r="F123" s="4">
+      <c r="F123" s="3">
         <v>28</v>
       </c>
-      <c r="G123" s="4">
-        <v>0</v>
-      </c>
-      <c r="H123" s="4">
+      <c r="G123" s="3">
+        <v>0</v>
+      </c>
+      <c r="H123" s="3">
         <v>4434</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A124" s="4" t="s">
+      <c r="A124" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B124" s="4">
+      <c r="B124" s="3">
         <v>1226</v>
       </c>
       <c r="C124" s="2">
         <f t="shared" si="1"/>
         <v>299</v>
       </c>
-      <c r="D124" s="4">
+      <c r="D124" s="3">
         <v>927</v>
       </c>
-      <c r="E124" s="4">
+      <c r="E124" s="3">
         <v>669</v>
       </c>
-      <c r="F124" s="4">
+      <c r="F124" s="3">
         <v>29</v>
       </c>
-      <c r="G124" s="4">
-        <v>0</v>
-      </c>
-      <c r="H124" s="4">
+      <c r="G124" s="3">
+        <v>0</v>
+      </c>
+      <c r="H124" s="3">
         <v>3197</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A125" s="4" t="s">
+      <c r="A125" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B125" s="4"/>
+      <c r="B125" s="3"/>
       <c r="C125" s="2"/>
-      <c r="D125" s="4"/>
-      <c r="E125" s="4">
+      <c r="D125" s="3"/>
+      <c r="E125" s="3">
         <v>745</v>
       </c>
-      <c r="F125" s="4">
+      <c r="F125" s="3">
         <v>44</v>
       </c>
-      <c r="G125" s="4">
-        <v>0</v>
-      </c>
-      <c r="H125" s="4">
+      <c r="G125" s="3">
+        <v>0</v>
+      </c>
+      <c r="H125" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A126" s="4" t="s">
+      <c r="A126" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B126" s="4">
+      <c r="B126" s="3">
         <v>2172</v>
       </c>
       <c r="C126" s="2">
         <f t="shared" si="1"/>
         <v>302</v>
       </c>
-      <c r="D126" s="4">
+      <c r="D126" s="3">
         <v>1870</v>
       </c>
-      <c r="E126" s="4">
+      <c r="E126" s="3">
         <v>634</v>
       </c>
-      <c r="F126" s="4">
+      <c r="F126" s="3">
         <v>32</v>
       </c>
-      <c r="G126" s="4">
+      <c r="G126" s="3">
         <v>30</v>
       </c>
-      <c r="H126" s="4">
+      <c r="H126" s="3">
         <v>10950</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A127" s="4" t="s">
+      <c r="A127" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B127" s="4">
+      <c r="B127" s="3">
         <v>1629</v>
       </c>
       <c r="C127" s="2">
         <f t="shared" si="1"/>
         <v>377</v>
       </c>
-      <c r="D127" s="4">
+      <c r="D127" s="3">
         <v>1252</v>
       </c>
-      <c r="E127" s="4">
+      <c r="E127" s="3">
         <v>638</v>
       </c>
-      <c r="F127" s="4">
+      <c r="F127" s="3">
         <v>32</v>
       </c>
-      <c r="G127" s="4">
+      <c r="G127" s="3">
         <v>30</v>
       </c>
-      <c r="H127" s="4">
+      <c r="H127" s="3">
         <v>4498</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A128" s="4" t="s">
+      <c r="A128" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B128" s="4">
+      <c r="B128" s="3">
         <v>1650</v>
       </c>
       <c r="C128" s="2">
         <f t="shared" si="1"/>
         <v>358</v>
       </c>
-      <c r="D128" s="4">
+      <c r="D128" s="3">
         <v>1292</v>
       </c>
-      <c r="E128" s="4">
+      <c r="E128" s="3">
         <v>545</v>
       </c>
-      <c r="F128" s="4">
+      <c r="F128" s="3">
         <v>27</v>
       </c>
-      <c r="G128" s="4">
+      <c r="G128" s="3">
         <v>30</v>
       </c>
-      <c r="H128" s="4">
+      <c r="H128" s="3">
         <v>5470</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A129" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B129" s="4"/>
+      <c r="C129" s="2"/>
+      <c r="D129" s="4"/>
+      <c r="E129" s="4">
+        <v>545</v>
+      </c>
+      <c r="F129" s="4">
+        <v>35</v>
+      </c>
+      <c r="G129" s="4">
+        <v>0</v>
+      </c>
+      <c r="H129" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A130" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B130" s="4"/>
+      <c r="C130" s="2"/>
+      <c r="D130" s="4"/>
+      <c r="E130" s="4">
+        <v>545</v>
+      </c>
+      <c r="F130" s="4">
+        <v>35</v>
+      </c>
+      <c r="G130" s="4">
+        <v>0</v>
+      </c>
+      <c r="H130" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A131" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B131" s="5">
+        <v>3373</v>
+      </c>
+      <c r="C131" s="2">
+        <f t="shared" si="1"/>
+        <v>858</v>
+      </c>
+      <c r="D131" s="4">
+        <v>2515</v>
+      </c>
+      <c r="E131" s="4">
+        <v>301</v>
+      </c>
+      <c r="F131" s="4">
+        <v>12</v>
+      </c>
+      <c r="G131" s="4">
+        <v>16</v>
+      </c>
+      <c r="H131" s="4">
+        <v>8168</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A132" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B132" s="5">
+        <v>1262</v>
+      </c>
+      <c r="C132" s="2">
+        <f t="shared" si="1"/>
+        <v>188</v>
+      </c>
+      <c r="D132" s="4">
+        <v>1074</v>
+      </c>
+      <c r="E132" s="4">
+        <v>505</v>
+      </c>
+      <c r="F132" s="4">
+        <v>22</v>
+      </c>
+      <c r="G132" s="4">
+        <v>29</v>
+      </c>
+      <c r="H132" s="4">
+        <v>8216</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A133" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B133" s="5">
+        <v>1150</v>
+      </c>
+      <c r="C133" s="2">
+        <f t="shared" si="1"/>
+        <v>256</v>
+      </c>
+      <c r="D133" s="4">
+        <v>894</v>
+      </c>
+      <c r="E133" s="4">
+        <v>461</v>
+      </c>
+      <c r="F133" s="4">
+        <v>20</v>
+      </c>
+      <c r="G133" s="4">
+        <v>31</v>
+      </c>
+      <c r="H133" s="4">
+        <v>4869</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A134" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B134" s="4">
+        <v>992</v>
+      </c>
+      <c r="C134" s="2">
+        <f t="shared" ref="C134:C135" si="2">B134-D134</f>
+        <v>267</v>
+      </c>
+      <c r="D134" s="4">
+        <v>725</v>
+      </c>
+      <c r="E134" s="4">
+        <v>388</v>
+      </c>
+      <c r="F134" s="4">
+        <v>18</v>
+      </c>
+      <c r="G134" s="4">
+        <v>29</v>
+      </c>
+      <c r="H134" s="4">
+        <v>6320</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A135" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B135" s="4">
+        <v>898</v>
+      </c>
+      <c r="C135" s="2">
+        <f t="shared" si="2"/>
+        <v>232</v>
+      </c>
+      <c r="D135" s="4">
+        <v>666</v>
+      </c>
+      <c r="E135" s="4">
+        <v>383</v>
+      </c>
+      <c r="F135" s="4">
+        <v>19</v>
+      </c>
+      <c r="G135" s="4">
+        <v>30</v>
+      </c>
+      <c r="H135" s="4">
+        <v>4602</v>
       </c>
     </row>
   </sheetData>
